--- a/data/pca/factorExposure/factorExposure_2019-04-12.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-04-12.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,15 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +732,115 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>0.1318778539427675</v>
+        <v>-0.07832066769088844</v>
       </c>
       <c r="C2">
-        <v>-0.008704065379687242</v>
+        <v>0.04156809457117234</v>
       </c>
       <c r="D2">
-        <v>-0.04037217742064275</v>
+        <v>0.002806141631673656</v>
       </c>
       <c r="E2">
-        <v>-0.1084212198349726</v>
+        <v>0.03831983306101853</v>
       </c>
       <c r="F2">
-        <v>0.1019752765932612</v>
+        <v>0.1439253638417679</v>
       </c>
       <c r="G2">
-        <v>-0.02008519792114317</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.1087093821233699</v>
+      </c>
+      <c r="H2">
+        <v>-0.04976616556398184</v>
+      </c>
+      <c r="I2">
+        <v>0.009906966804695506</v>
+      </c>
+      <c r="J2">
+        <v>0.08140128337468476</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>0.2271222882312316</v>
+        <v>-0.169087145132768</v>
       </c>
       <c r="C3">
-        <v>0.1005017444040362</v>
+        <v>0.08568921783656097</v>
       </c>
       <c r="D3">
-        <v>0.06171817011948455</v>
+        <v>-0.05556811152070578</v>
       </c>
       <c r="E3">
-        <v>-0.3139390203553588</v>
+        <v>-0.02451688642162329</v>
       </c>
       <c r="F3">
-        <v>0.01034040012848588</v>
+        <v>0.3692782373249327</v>
       </c>
       <c r="G3">
-        <v>-0.1239440004629465</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.08945311066365619</v>
+      </c>
+      <c r="H3">
+        <v>-0.2766049591747244</v>
+      </c>
+      <c r="I3">
+        <v>0.1400284879105506</v>
+      </c>
+      <c r="J3">
+        <v>0.3108302064697612</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>0.101711295282792</v>
+        <v>-0.07443449280016426</v>
       </c>
       <c r="C4">
-        <v>0.03073204304683414</v>
+        <v>0.03219991668077749</v>
       </c>
       <c r="D4">
-        <v>-0.02317371608319433</v>
+        <v>-0.03621001186515123</v>
       </c>
       <c r="E4">
-        <v>-0.07593015423068043</v>
+        <v>0.0319659786963903</v>
       </c>
       <c r="F4">
-        <v>0.03490557588798728</v>
+        <v>0.08298589021942039</v>
       </c>
       <c r="G4">
-        <v>-0.03894388733941455</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.0438190726362151</v>
+      </c>
+      <c r="H4">
+        <v>-0.02284328014157742</v>
+      </c>
+      <c r="I4">
+        <v>0.02068287877222753</v>
+      </c>
+      <c r="J4">
+        <v>0.06715034419117037</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +860,307 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>-0.01691428429794805</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.003848422714018765</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>-0.009386950527185032</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.003275715315582545</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.000898815716570504</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.02057494534229816</v>
+      </c>
+      <c r="H6">
+        <v>-0.003395740440770745</v>
+      </c>
+      <c r="I6">
+        <v>-0.00863823515501407</v>
+      </c>
+      <c r="J6">
+        <v>0.0007260276185257808</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>0.04336558505133724</v>
+        <v>-0.03530017811886908</v>
       </c>
       <c r="C7">
-        <v>0.005263659049699983</v>
+        <v>-0.00180249995110018</v>
       </c>
       <c r="D7">
-        <v>-0.02975526467218042</v>
+        <v>-0.04108933148882293</v>
       </c>
       <c r="E7">
-        <v>-0.07423982114051388</v>
+        <v>0.02610064095642665</v>
       </c>
       <c r="F7">
-        <v>-0.05200247776746415</v>
+        <v>0.05599570471133088</v>
       </c>
       <c r="G7">
-        <v>-0.001408580164340909</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.00555474973114396</v>
+      </c>
+      <c r="H7">
+        <v>-0.04542432434459791</v>
+      </c>
+      <c r="I7">
+        <v>-0.01719479479055232</v>
+      </c>
+      <c r="J7">
+        <v>0.04714902347355539</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>0.04358485878606495</v>
+        <v>-0.02997186341345645</v>
       </c>
       <c r="C8">
-        <v>0.04305288712481653</v>
+        <v>0.03515815139075984</v>
       </c>
       <c r="D8">
-        <v>0.0002932821472461462</v>
+        <v>-0.03682412371647396</v>
       </c>
       <c r="E8">
-        <v>-0.07006964025125183</v>
+        <v>0.01172070235418306</v>
       </c>
       <c r="F8">
-        <v>0.00508494975770584</v>
+        <v>0.07311949917286528</v>
       </c>
       <c r="G8">
-        <v>-0.02211212970508679</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.02026448448047081</v>
+      </c>
+      <c r="H8">
+        <v>-0.04854728984908589</v>
+      </c>
+      <c r="I8">
+        <v>0.01924756698852679</v>
+      </c>
+      <c r="J8">
+        <v>0.07039284821785133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>0.08863690550034047</v>
+        <v>-0.06209903333037404</v>
       </c>
       <c r="C9">
-        <v>0.0318935946986151</v>
+        <v>0.02941549022187069</v>
       </c>
       <c r="D9">
-        <v>-0.02963612176856597</v>
+        <v>-0.03999054899803661</v>
       </c>
       <c r="E9">
-        <v>-0.06264662453793385</v>
+        <v>0.03060660062555636</v>
       </c>
       <c r="F9">
-        <v>0.02368288332435704</v>
+        <v>0.08341624178679351</v>
       </c>
       <c r="G9">
-        <v>-0.05586515996604553</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.04112995146392148</v>
+      </c>
+      <c r="H9">
+        <v>-0.0194296437225385</v>
+      </c>
+      <c r="I9">
+        <v>0.001350686062948435</v>
+      </c>
+      <c r="J9">
+        <v>0.03846071259744627</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>-0.005627915279742562</v>
+        <v>-0.02110364953906271</v>
       </c>
       <c r="C10">
-        <v>-0.1577458220643623</v>
+        <v>-0.1266663388574874</v>
       </c>
       <c r="D10">
-        <v>0.01631981610181577</v>
+        <v>0.09119883608122385</v>
       </c>
       <c r="E10">
-        <v>-0.06608451681913696</v>
+        <v>-0.02071645582326105</v>
       </c>
       <c r="F10">
-        <v>0.01574928810627434</v>
+        <v>0.07037344516870435</v>
       </c>
       <c r="G10">
-        <v>0.022408278206795</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.02337243491410388</v>
+      </c>
+      <c r="H10">
+        <v>0.002811148177523793</v>
+      </c>
+      <c r="I10">
+        <v>0.1136089858938172</v>
+      </c>
+      <c r="J10">
+        <v>0.02827775887781665</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>0.05843410649187565</v>
+        <v>-0.04902256987445006</v>
       </c>
       <c r="C11">
-        <v>0.005621648150729474</v>
+        <v>0.02575571254565167</v>
       </c>
       <c r="D11">
-        <v>0.01038864540322967</v>
+        <v>-0.006654115821239318</v>
       </c>
       <c r="E11">
-        <v>-0.03867797419032267</v>
+        <v>0.004173605139976126</v>
       </c>
       <c r="F11">
-        <v>0.006924618774823968</v>
+        <v>0.03924833772541084</v>
       </c>
       <c r="G11">
-        <v>0.02214479211447356</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.008885227892365734</v>
+      </c>
+      <c r="H11">
+        <v>-0.0006814754804951723</v>
+      </c>
+      <c r="I11">
+        <v>-0.02356513192572889</v>
+      </c>
+      <c r="J11">
+        <v>0.03963596587998483</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>0.04573930908438367</v>
+        <v>-0.04669764970284083</v>
       </c>
       <c r="C12">
-        <v>0.01254970065347286</v>
+        <v>0.01925684328458743</v>
       </c>
       <c r="D12">
-        <v>0.006148578170715197</v>
+        <v>-0.01558978800792581</v>
       </c>
       <c r="E12">
-        <v>-0.02765220837344309</v>
+        <v>0.007632457754810041</v>
       </c>
       <c r="F12">
-        <v>-0.001671256101065811</v>
+        <v>0.01730058459407449</v>
       </c>
       <c r="G12">
-        <v>0.000600938309362844</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>9.092892593108763e-05</v>
+      </c>
+      <c r="H12">
+        <v>-0.002026266638079139</v>
+      </c>
+      <c r="I12">
+        <v>-0.02017356974103774</v>
+      </c>
+      <c r="J12">
+        <v>0.02249547717971821</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>0.06446995721534664</v>
+        <v>-0.04220024781952232</v>
       </c>
       <c r="C13">
-        <v>0.01657710754885036</v>
+        <v>0.03051506735806968</v>
       </c>
       <c r="D13">
-        <v>0.01728915505982727</v>
+        <v>-0.0003266244195462222</v>
       </c>
       <c r="E13">
-        <v>-0.1050424770370479</v>
+        <v>0.004230318099517532</v>
       </c>
       <c r="F13">
-        <v>0.01507159785195953</v>
+        <v>0.1044640209378646</v>
       </c>
       <c r="G13">
-        <v>0.001595225814369335</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.02272309483183262</v>
+      </c>
+      <c r="H13">
+        <v>-0.04642310429558564</v>
+      </c>
+      <c r="I13">
+        <v>-0.0062201808033395</v>
+      </c>
+      <c r="J13">
+        <v>0.06242879315311053</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>0.03814644474786379</v>
+        <v>-0.02906049794513193</v>
       </c>
       <c r="C14">
-        <v>0.008185978776641269</v>
+        <v>0.01191531751940215</v>
       </c>
       <c r="D14">
-        <v>-0.02132925060259814</v>
+        <v>-0.01431085586588228</v>
       </c>
       <c r="E14">
-        <v>-0.01889839938132528</v>
+        <v>0.0240915703647455</v>
       </c>
       <c r="F14">
-        <v>0.001463765715118445</v>
+        <v>0.03803775457855073</v>
       </c>
       <c r="G14">
-        <v>0.02161994363621663</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.02993961577164513</v>
+      </c>
+      <c r="H14">
+        <v>-0.05046666182800864</v>
+      </c>
+      <c r="I14">
+        <v>0.006083837356081682</v>
+      </c>
+      <c r="J14">
+        <v>0.01980498563334225</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1180,51 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>0.04903812906894043</v>
+        <v>-0.04423364573459123</v>
       </c>
       <c r="C16">
-        <v>0.02159253444969844</v>
+        <v>0.02965187707408076</v>
       </c>
       <c r="D16">
-        <v>0.01404378333444439</v>
+        <v>-0.01610498644298863</v>
       </c>
       <c r="E16">
-        <v>-0.03310299880553479</v>
+        <v>0.001087001935599085</v>
       </c>
       <c r="F16">
-        <v>-0.005058058274032971</v>
+        <v>0.0331934354792221</v>
       </c>
       <c r="G16">
-        <v>0.006853364547049118</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.003637590537666616</v>
+      </c>
+      <c r="H16">
+        <v>-0.007638706255947991</v>
+      </c>
+      <c r="I16">
+        <v>-0.02118699503581951</v>
+      </c>
+      <c r="J16">
+        <v>0.0318437628462083</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1244,19 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1276,115 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B19">
-        <v>0.05252482402783211</v>
+        <v>-0.04699498556678336</v>
       </c>
       <c r="C19">
-        <v>0.02948292908846393</v>
+        <v>0.03751880011405632</v>
       </c>
       <c r="D19">
-        <v>0.01000766624366774</v>
+        <v>-0.02099807308652875</v>
       </c>
       <c r="E19">
-        <v>-0.07145713748166443</v>
+        <v>0.01197893051168165</v>
       </c>
       <c r="F19">
-        <v>-0.01605770603799989</v>
+        <v>0.0820560738632389</v>
       </c>
       <c r="G19">
-        <v>0.02562962955512072</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.01223480471115437</v>
+      </c>
+      <c r="H19">
+        <v>-0.08245539771895598</v>
+      </c>
+      <c r="I19">
+        <v>0.02441505295674594</v>
+      </c>
+      <c r="J19">
+        <v>0.05843509359582724</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>0.03926318594051137</v>
+        <v>-0.01916980685433325</v>
       </c>
       <c r="C20">
-        <v>0.03669108272419315</v>
+        <v>0.02406132315046291</v>
       </c>
       <c r="D20">
-        <v>-0.01003079782942217</v>
+        <v>-0.02316884530131551</v>
       </c>
       <c r="E20">
-        <v>-0.06133018690728427</v>
+        <v>0.01673745896469222</v>
       </c>
       <c r="F20">
-        <v>-0.01484108908730837</v>
+        <v>0.0677865765926363</v>
       </c>
       <c r="G20">
-        <v>0.007451801775839977</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.0158206527455351</v>
+      </c>
+      <c r="H20">
+        <v>-0.07044920968232816</v>
+      </c>
+      <c r="I20">
+        <v>0.00132817549961496</v>
+      </c>
+      <c r="J20">
+        <v>0.08471697263003995</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>0.04130674849660648</v>
+        <v>-0.02356504843438373</v>
       </c>
       <c r="C21">
-        <v>0.01977389451457425</v>
+        <v>0.01864882628136746</v>
       </c>
       <c r="D21">
-        <v>0.001000918325312704</v>
+        <v>-0.02967128516919425</v>
       </c>
       <c r="E21">
-        <v>-0.09168569200706184</v>
+        <v>0.001127778585534535</v>
       </c>
       <c r="F21">
-        <v>0.04600823280917483</v>
+        <v>0.07728884551974553</v>
       </c>
       <c r="G21">
-        <v>0.005646881050357754</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.03408454213805254</v>
+      </c>
+      <c r="H21">
+        <v>-0.02440613692269566</v>
+      </c>
+      <c r="I21">
+        <v>-0.01617900654561387</v>
+      </c>
+      <c r="J21">
+        <v>0.03182451033780997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1404,19 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1436,371 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>0.05082520140787977</v>
+        <v>-0.0433944640527189</v>
       </c>
       <c r="C24">
-        <v>0.01424746173351774</v>
+        <v>0.02066765390504268</v>
       </c>
       <c r="D24">
-        <v>0.004972861552332245</v>
+        <v>-0.01021959912838676</v>
       </c>
       <c r="E24">
-        <v>-0.04152346551977824</v>
+        <v>0.005938245791465675</v>
       </c>
       <c r="F24">
-        <v>-0.003148025211431546</v>
+        <v>0.03946391130750311</v>
       </c>
       <c r="G24">
-        <v>0.002572339179443418</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.003561282593304591</v>
+      </c>
+      <c r="H24">
+        <v>-0.005793794735185694</v>
+      </c>
+      <c r="I24">
+        <v>-0.0207396804958583</v>
+      </c>
+      <c r="J24">
+        <v>0.03976248009363544</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>0.0505542992050284</v>
+        <v>-0.04559843829181556</v>
       </c>
       <c r="C25">
-        <v>0.004818634685492944</v>
+        <v>0.02052196838829251</v>
       </c>
       <c r="D25">
-        <v>0.007301348046307145</v>
+        <v>-0.009151298791079352</v>
       </c>
       <c r="E25">
-        <v>-0.04068440315382366</v>
+        <v>0.003850861427946092</v>
       </c>
       <c r="F25">
-        <v>0.006837284170709975</v>
+        <v>0.04361112514569128</v>
       </c>
       <c r="G25">
-        <v>0.01037821365253299</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.003625839322485231</v>
+      </c>
+      <c r="H25">
+        <v>-0.000465151282725689</v>
+      </c>
+      <c r="I25">
+        <v>-0.02023848995733149</v>
+      </c>
+      <c r="J25">
+        <v>0.03067302056714449</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>0.01408231150094757</v>
+        <v>-0.01631786871652832</v>
       </c>
       <c r="C26">
-        <v>0.02557969306717456</v>
+        <v>0.02290795522970043</v>
       </c>
       <c r="D26">
-        <v>-0.0005583402792947396</v>
+        <v>-0.009613222331228081</v>
       </c>
       <c r="E26">
-        <v>-0.03719665130581026</v>
+        <v>-0.0008234454232270877</v>
       </c>
       <c r="F26">
-        <v>0.01665472511548915</v>
+        <v>0.04402144000254216</v>
       </c>
       <c r="G26">
-        <v>0.01702645600672233</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.02047698280744044</v>
+      </c>
+      <c r="H26">
+        <v>-0.02968624857336057</v>
+      </c>
+      <c r="I26">
+        <v>-0.01440306125597006</v>
+      </c>
+      <c r="J26">
+        <v>0.03435814601194782</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B27">
-        <v>0.1125979716855983</v>
+        <v>-0.0797820676023147</v>
       </c>
       <c r="C27">
-        <v>0.0203625781153906</v>
+        <v>0.02685523990808717</v>
       </c>
       <c r="D27">
-        <v>-0.01532110113386926</v>
+        <v>-0.01924709278306316</v>
       </c>
       <c r="E27">
-        <v>-0.1010566327435832</v>
+        <v>0.02963250954811767</v>
       </c>
       <c r="F27">
-        <v>0.01143008692078321</v>
+        <v>0.07377414138052286</v>
       </c>
       <c r="G27">
-        <v>-0.0127409773636076</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>0.01655793259255306</v>
+      </c>
+      <c r="H27">
+        <v>-0.007627101478188297</v>
+      </c>
+      <c r="I27">
+        <v>0.004144320107780456</v>
+      </c>
+      <c r="J27">
+        <v>0.04442707231536831</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>-0.005066752271524257</v>
+        <v>-0.03892299855569478</v>
       </c>
       <c r="C28">
-        <v>-0.2444490721339275</v>
+        <v>-0.1970647415340124</v>
       </c>
       <c r="D28">
-        <v>0.01821540338349379</v>
+        <v>0.1297356047850521</v>
       </c>
       <c r="E28">
-        <v>-0.03915883271405988</v>
+        <v>-0.03268262509713563</v>
       </c>
       <c r="F28">
-        <v>0.01825711359239997</v>
+        <v>0.05605679592616391</v>
       </c>
       <c r="G28">
-        <v>-0.0003823596827117886</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.02594579735979605</v>
+      </c>
+      <c r="H28">
+        <v>0.01008676768875517</v>
+      </c>
+      <c r="I28">
+        <v>0.1543350854500133</v>
+      </c>
+      <c r="J28">
+        <v>0.0461752610384758</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>0.02245161110697436</v>
+        <v>-0.02116858587566729</v>
       </c>
       <c r="C29">
-        <v>0.01649694682210322</v>
+        <v>0.01182640268281287</v>
       </c>
       <c r="D29">
-        <v>-0.02423065645323302</v>
+        <v>-0.01887585296065984</v>
       </c>
       <c r="E29">
-        <v>-0.0256621140699247</v>
+        <v>0.02282594990090393</v>
       </c>
       <c r="F29">
-        <v>0.01425126072746911</v>
+        <v>0.03783995419461366</v>
       </c>
       <c r="G29">
-        <v>0.01603570784232546</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.03389411739398687</v>
+      </c>
+      <c r="H29">
+        <v>-0.04671419620971587</v>
+      </c>
+      <c r="I29">
+        <v>-0.001929446102633006</v>
+      </c>
+      <c r="J29">
+        <v>0.01012629860216206</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>0.1095236277788946</v>
+        <v>-0.09379049646363877</v>
       </c>
       <c r="C30">
-        <v>0.01024866078832549</v>
+        <v>0.05847099410294379</v>
       </c>
       <c r="D30">
-        <v>-0.01640020632871871</v>
+        <v>0.009874011435007253</v>
       </c>
       <c r="E30">
-        <v>-0.1127517301611023</v>
+        <v>0.02904347020537024</v>
       </c>
       <c r="F30">
-        <v>0.005946324494300567</v>
+        <v>0.1000710864754358</v>
       </c>
       <c r="G30">
-        <v>0.0429069746856027</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.01476978328687166</v>
+      </c>
+      <c r="H30">
+        <v>-0.01626654580350184</v>
+      </c>
+      <c r="I30">
+        <v>-0.02144790593541203</v>
+      </c>
+      <c r="J30">
+        <v>0.03146257545862575</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>0.05839304255990368</v>
+        <v>-0.06259322143527841</v>
       </c>
       <c r="C31">
-        <v>0.01431574927320479</v>
+        <v>0.0246638486717033</v>
       </c>
       <c r="D31">
-        <v>-0.02058086335613653</v>
+        <v>-0.001214546859802274</v>
       </c>
       <c r="E31">
-        <v>0.01776708627483253</v>
+        <v>0.02009269459757322</v>
       </c>
       <c r="F31">
-        <v>0.01232956113002906</v>
+        <v>0.003379633010561144</v>
       </c>
       <c r="G31">
-        <v>0.04979542896472609</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.04402370726421698</v>
+      </c>
+      <c r="H31">
+        <v>-0.02900349206166744</v>
+      </c>
+      <c r="I31">
+        <v>0.00528146629280432</v>
+      </c>
+      <c r="J31">
+        <v>0.01668258892652584</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>0.07068213171644327</v>
+        <v>-0.04574296554678522</v>
       </c>
       <c r="C32">
-        <v>0.0274721520438081</v>
+        <v>0.0365034404500755</v>
       </c>
       <c r="D32">
-        <v>-0.005265769648938144</v>
+        <v>-0.04002488234213514</v>
       </c>
       <c r="E32">
-        <v>-0.1089320092038233</v>
+        <v>0.02361230079475709</v>
       </c>
       <c r="F32">
-        <v>-0.008241466238947694</v>
+        <v>0.08946830088241087</v>
       </c>
       <c r="G32">
-        <v>0.022113574219637</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.01276387292140649</v>
+      </c>
+      <c r="H32">
+        <v>-0.03642791455514761</v>
+      </c>
+      <c r="I32">
+        <v>0.00655703098385928</v>
+      </c>
+      <c r="J32">
+        <v>0.05037685937457705</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>0.070548595699594</v>
+        <v>-0.05768789870226264</v>
       </c>
       <c r="C33">
-        <v>0.0344994850215401</v>
+        <v>0.05347572780256239</v>
       </c>
       <c r="D33">
-        <v>-0.002184618215967049</v>
+        <v>-0.01028442919703836</v>
       </c>
       <c r="E33">
-        <v>-0.07257955956988606</v>
+        <v>0.003934110427873702</v>
       </c>
       <c r="F33">
-        <v>0.04678016560912987</v>
+        <v>0.0781670606575766</v>
       </c>
       <c r="G33">
-        <v>0.01120150907424382</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.03667299100858941</v>
+      </c>
+      <c r="H33">
+        <v>-0.03514147915660915</v>
+      </c>
+      <c r="I33">
+        <v>-0.02604580462710137</v>
+      </c>
+      <c r="J33">
+        <v>0.04627962118730442</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>0.04989386039253245</v>
+        <v>-0.04599921404612475</v>
       </c>
       <c r="C34">
-        <v>0.01328706410359787</v>
+        <v>0.02363796650693162</v>
       </c>
       <c r="D34">
-        <v>0.004379261912893016</v>
+        <v>-0.01768273462054868</v>
       </c>
       <c r="E34">
-        <v>-0.02236668940282219</v>
+        <v>0.01247516492505893</v>
       </c>
       <c r="F34">
-        <v>-0.004910491231896622</v>
+        <v>0.03163643115375147</v>
       </c>
       <c r="G34">
-        <v>0.01158555999552913</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.004125224893882497</v>
+      </c>
+      <c r="H34">
+        <v>-0.01000967773799931</v>
+      </c>
+      <c r="I34">
+        <v>-0.01866318208312978</v>
+      </c>
+      <c r="J34">
+        <v>0.02918490834866948</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1820,51 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>0.01364460557317024</v>
+        <v>-0.01590234095249273</v>
       </c>
       <c r="C36">
-        <v>-0.008335578936020811</v>
+        <v>-0.000315205852919921</v>
       </c>
       <c r="D36">
-        <v>-0.006756663912036011</v>
+        <v>-0.004750402854979176</v>
       </c>
       <c r="E36">
-        <v>-0.02059161041584086</v>
+        <v>0.00796626172988678</v>
       </c>
       <c r="F36">
-        <v>0.005874989248570905</v>
+        <v>0.0276784845477806</v>
       </c>
       <c r="G36">
-        <v>0.01546445814947829</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.02451025353876337</v>
+      </c>
+      <c r="H36">
+        <v>-0.02668370264973296</v>
+      </c>
+      <c r="I36">
+        <v>-0.004735387627218173</v>
+      </c>
+      <c r="J36">
+        <v>0.003091883451013345</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1884,243 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>0.05697069443542685</v>
+        <v>-0.03433945625745738</v>
       </c>
       <c r="C38">
-        <v>0.008314229155026139</v>
+        <v>0.01001660619022046</v>
       </c>
       <c r="D38">
-        <v>-0.02148989344964637</v>
+        <v>-0.008686876970737131</v>
       </c>
       <c r="E38">
-        <v>-0.0378106565472361</v>
+        <v>0.008685041060313403</v>
       </c>
       <c r="F38">
-        <v>0.002311066025603905</v>
+        <v>0.05078489177273197</v>
       </c>
       <c r="G38">
-        <v>-0.02587620348329856</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.02741616115617251</v>
+      </c>
+      <c r="H38">
+        <v>-0.01240320041748916</v>
+      </c>
+      <c r="I38">
+        <v>-0.008989049076525986</v>
+      </c>
+      <c r="J38">
+        <v>0.002282396977203798</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>0.07703715930930308</v>
+        <v>-0.05794089625596567</v>
       </c>
       <c r="C39">
-        <v>0.0106988829472702</v>
+        <v>0.03804477692606661</v>
       </c>
       <c r="D39">
-        <v>0.00055772620555481</v>
+        <v>-0.01599289941965585</v>
       </c>
       <c r="E39">
-        <v>-0.0413897460647293</v>
+        <v>0.01308146698635881</v>
       </c>
       <c r="F39">
-        <v>0.0195079235483052</v>
+        <v>0.05573154572889003</v>
       </c>
       <c r="G39">
-        <v>0.01120345114815625</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.01722917163185406</v>
+      </c>
+      <c r="H39">
+        <v>0.0007602503924919428</v>
+      </c>
+      <c r="I39">
+        <v>-0.04508514388816286</v>
+      </c>
+      <c r="J39">
+        <v>0.0343266241969908</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>0.07626118639268921</v>
+        <v>-0.05674513225300042</v>
       </c>
       <c r="C40">
-        <v>0.03036089719810905</v>
+        <v>0.04643092127352466</v>
       </c>
       <c r="D40">
-        <v>0.001367714162143209</v>
+        <v>-0.003308598830003461</v>
       </c>
       <c r="E40">
-        <v>-0.09936864315262287</v>
+        <v>0.01851529489044372</v>
       </c>
       <c r="F40">
-        <v>0.02895774101497263</v>
+        <v>0.0971030063103875</v>
       </c>
       <c r="G40">
-        <v>-0.03707871341865451</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.02618335920713264</v>
+      </c>
+      <c r="H40">
+        <v>-0.05049487160884434</v>
+      </c>
+      <c r="I40">
+        <v>-0.01823510971117743</v>
+      </c>
+      <c r="J40">
+        <v>0.1162840329092746</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>0.003899390112496986</v>
+        <v>-0.002695917810117877</v>
       </c>
       <c r="C41">
-        <v>0.01243308852753203</v>
+        <v>0.009943601952770121</v>
       </c>
       <c r="D41">
-        <v>-0.02154684045376142</v>
+        <v>-0.007031288067469843</v>
       </c>
       <c r="E41">
-        <v>-0.01328351051208745</v>
+        <v>0.00604615133738663</v>
       </c>
       <c r="F41">
-        <v>0.02937873753723317</v>
+        <v>0.01499643359124693</v>
       </c>
       <c r="G41">
-        <v>0.0216342387299901</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.03878185480453102</v>
+      </c>
+      <c r="H41">
+        <v>-0.03013780716319826</v>
+      </c>
+      <c r="I41">
+        <v>0.01533936515592001</v>
+      </c>
+      <c r="J41">
+        <v>0.01718505209049918</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B42">
-        <v>0.1260026973488028</v>
+        <v>-0.2169526123518937</v>
       </c>
       <c r="C42">
-        <v>0.1895075402156484</v>
+        <v>0.17803721566371</v>
       </c>
       <c r="D42">
-        <v>0.9268299087016562</v>
+        <v>-0.02835796329485444</v>
       </c>
       <c r="E42">
-        <v>0.109317969204675</v>
+        <v>-0.9290785663949032</v>
       </c>
       <c r="F42">
-        <v>-0.0361872472302997</v>
+        <v>-0.1664696524901728</v>
       </c>
       <c r="G42">
-        <v>0.06892597156748792</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>-0.007914099315904422</v>
+      </c>
+      <c r="H42">
+        <v>-0.002945214779285073</v>
+      </c>
+      <c r="I42">
+        <v>0.04222778015625538</v>
+      </c>
+      <c r="J42">
+        <v>0.03177272622780901</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>0.008129898469208674</v>
+        <v>-0.004950414741467356</v>
       </c>
       <c r="C43">
-        <v>0.01726668472137698</v>
+        <v>0.01476579975926302</v>
       </c>
       <c r="D43">
-        <v>-0.01391464340869139</v>
+        <v>-0.006980725877590538</v>
       </c>
       <c r="E43">
-        <v>-0.03424052005217109</v>
+        <v>0.006108766828791926</v>
       </c>
       <c r="F43">
-        <v>0.005309221351880862</v>
+        <v>0.02783619067814322</v>
       </c>
       <c r="G43">
-        <v>0.01977279410074967</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.02208136196224397</v>
+      </c>
+      <c r="H43">
+        <v>-0.03101887731494642</v>
+      </c>
+      <c r="I43">
+        <v>0.006325255673565879</v>
+      </c>
+      <c r="J43">
+        <v>0.02560825053751944</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>0.04081539378189129</v>
+        <v>-0.02796931270153819</v>
       </c>
       <c r="C44">
-        <v>0.03865661221518182</v>
+        <v>0.03620632919806179</v>
       </c>
       <c r="D44">
-        <v>-0.005493720862177102</v>
+        <v>-0.02499791055920192</v>
       </c>
       <c r="E44">
-        <v>-0.1196906043342116</v>
+        <v>0.004624342415475591</v>
       </c>
       <c r="F44">
-        <v>0.08847201799511273</v>
+        <v>0.1231038930956537</v>
       </c>
       <c r="G44">
-        <v>0.02258384645150236</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.06215571599994271</v>
+      </c>
+      <c r="H44">
+        <v>-0.09877187892955985</v>
+      </c>
+      <c r="I44">
+        <v>0.01900401755873144</v>
+      </c>
+      <c r="J44">
+        <v>0.03850314226279399</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +2140,115 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>0.02519077697951875</v>
+        <v>-0.023134187869531</v>
       </c>
       <c r="C46">
-        <v>0.01498055407932945</v>
+        <v>0.02536450592046769</v>
       </c>
       <c r="D46">
-        <v>-0.02370277871189819</v>
+        <v>-0.01314623172564216</v>
       </c>
       <c r="E46">
-        <v>-0.0242548649213026</v>
+        <v>0.02002812454770318</v>
       </c>
       <c r="F46">
-        <v>0.02452312492568143</v>
+        <v>0.04644838499944347</v>
       </c>
       <c r="G46">
-        <v>0.02579734510178142</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.0307430688193652</v>
+      </c>
+      <c r="H46">
+        <v>-0.05020180530234227</v>
+      </c>
+      <c r="I46">
+        <v>0.001978355626763412</v>
+      </c>
+      <c r="J46">
+        <v>0.02651195445689929</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>0.0854523471592413</v>
+        <v>-0.0916674836968579</v>
       </c>
       <c r="C47">
-        <v>0.009072214744285087</v>
+        <v>0.01967282802862013</v>
       </c>
       <c r="D47">
-        <v>-0.02122961495053998</v>
+        <v>-0.003107284604033125</v>
       </c>
       <c r="E47">
-        <v>0.02201810335096676</v>
+        <v>0.02434684892237814</v>
       </c>
       <c r="F47">
-        <v>0.01093882123457917</v>
+        <v>-0.00926228654360358</v>
       </c>
       <c r="G47">
-        <v>0.03141548835574163</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.04818498109532607</v>
+      </c>
+      <c r="H47">
+        <v>-0.05215277108067327</v>
+      </c>
+      <c r="I47">
+        <v>0.008038948186232076</v>
+      </c>
+      <c r="J47">
+        <v>0.02631129207189607</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>0.01770379408390867</v>
+        <v>-0.01846875025585753</v>
       </c>
       <c r="C48">
-        <v>0.02012474871225208</v>
+        <v>0.01737359002760772</v>
       </c>
       <c r="D48">
-        <v>-0.01484755579102555</v>
+        <v>-0.01280216962206645</v>
       </c>
       <c r="E48">
-        <v>-0.02963484032840996</v>
+        <v>0.01085123717844496</v>
       </c>
       <c r="F48">
-        <v>0.008755770382459643</v>
+        <v>0.03057364419526356</v>
       </c>
       <c r="G48">
-        <v>0.003758136928743725</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.01583555645474288</v>
+      </c>
+      <c r="H48">
+        <v>-0.02241855514068224</v>
+      </c>
+      <c r="I48">
+        <v>0.006687468609576844</v>
+      </c>
+      <c r="J48">
+        <v>0.01620475517005009</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +2268,83 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>0.08697949742584039</v>
+        <v>-0.08767688445889843</v>
       </c>
       <c r="C50">
-        <v>0.03150937741640058</v>
+        <v>0.02713674655633877</v>
       </c>
       <c r="D50">
-        <v>-0.02596193311076197</v>
+        <v>-0.02696398583765581</v>
       </c>
       <c r="E50">
-        <v>0.01559808403294773</v>
+        <v>0.02121846186343663</v>
       </c>
       <c r="F50">
-        <v>0.0009469085117842384</v>
+        <v>-0.002189651221442239</v>
       </c>
       <c r="G50">
-        <v>0.03924405014234425</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.007478675524071737</v>
+      </c>
+      <c r="H50">
+        <v>-0.04032839560433084</v>
+      </c>
+      <c r="I50">
+        <v>-0.0162548248075424</v>
+      </c>
+      <c r="J50">
+        <v>-0.0008289889112024924</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>0.06867158841606406</v>
+        <v>-0.04653676830287474</v>
       </c>
       <c r="C51">
-        <v>-0.02328720386892735</v>
+        <v>0.007026359131311986</v>
       </c>
       <c r="D51">
-        <v>0.006530863765228188</v>
+        <v>0.01212708738846835</v>
       </c>
       <c r="E51">
-        <v>-0.08157665698421188</v>
+        <v>0.008291335958052433</v>
       </c>
       <c r="F51">
-        <v>0.05172353689308307</v>
+        <v>0.09523118656543926</v>
       </c>
       <c r="G51">
-        <v>0.0581854928236521</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.05622226991325947</v>
+      </c>
+      <c r="H51">
+        <v>-0.04462473683915596</v>
+      </c>
+      <c r="I51">
+        <v>0.01385507783110635</v>
+      </c>
+      <c r="J51">
+        <v>0.04861191380419066</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2364,307 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>0.1453083596728752</v>
+        <v>-0.1271517967697729</v>
       </c>
       <c r="C53">
-        <v>0.008181570613051215</v>
+        <v>0.03415439405290829</v>
       </c>
       <c r="D53">
-        <v>-0.04250608167720572</v>
+        <v>-0.009916638550318864</v>
       </c>
       <c r="E53">
-        <v>0.04057368644258658</v>
+        <v>0.04620659713430232</v>
       </c>
       <c r="F53">
-        <v>-0.003025297478740161</v>
+        <v>-0.03870087977112485</v>
       </c>
       <c r="G53">
-        <v>0.03821587037047635</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.02662916308813847</v>
+      </c>
+      <c r="H53">
+        <v>0.003891711150391388</v>
+      </c>
+      <c r="I53">
+        <v>0.02695068762821938</v>
+      </c>
+      <c r="J53">
+        <v>0.03899296833130249</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>0.02952562213284748</v>
+        <v>-0.02542046327969837</v>
       </c>
       <c r="C54">
-        <v>-0.003727233750130279</v>
+        <v>0.002828088364361659</v>
       </c>
       <c r="D54">
-        <v>-0.02915867548108028</v>
+        <v>-0.007368712251157996</v>
       </c>
       <c r="E54">
-        <v>-0.02997941415897315</v>
+        <v>0.02434671943181905</v>
       </c>
       <c r="F54">
-        <v>0.04585082138767015</v>
+        <v>0.03912007024651121</v>
       </c>
       <c r="G54">
-        <v>0.002891479151742279</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.05272739102278123</v>
+      </c>
+      <c r="H54">
+        <v>-0.04003270653639745</v>
+      </c>
+      <c r="I54">
+        <v>0.02725015350512544</v>
+      </c>
+      <c r="J54">
+        <v>0.00716062821797371</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>0.1003114147692299</v>
+        <v>-0.101727934512567</v>
       </c>
       <c r="C55">
-        <v>-0.005174094724072249</v>
+        <v>0.0129479592815655</v>
       </c>
       <c r="D55">
-        <v>-0.03829493874189121</v>
+        <v>-0.02023240938203019</v>
       </c>
       <c r="E55">
-        <v>0.00798725687751716</v>
+        <v>0.03139209580234392</v>
       </c>
       <c r="F55">
-        <v>-0.03965376586840084</v>
+        <v>-0.02918896351627664</v>
       </c>
       <c r="G55">
-        <v>-0.02086637630043066</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.005789965153809075</v>
+      </c>
+      <c r="H55">
+        <v>-0.01452704057433662</v>
+      </c>
+      <c r="I55">
+        <v>0.008188900168469061</v>
+      </c>
+      <c r="J55">
+        <v>0.03533095423299084</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>0.1794073547546732</v>
+        <v>-0.1696058757250996</v>
       </c>
       <c r="C56">
-        <v>-0.01460548212535219</v>
+        <v>0.01490274386576952</v>
       </c>
       <c r="D56">
-        <v>-0.08254112566133556</v>
+        <v>-0.007834358152866205</v>
       </c>
       <c r="E56">
-        <v>0.0848262047008736</v>
+        <v>0.08466101733224793</v>
       </c>
       <c r="F56">
-        <v>-0.07623340876668519</v>
+        <v>-0.08479340683192703</v>
       </c>
       <c r="G56">
-        <v>0.003466616394423571</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.02626923244412847</v>
+      </c>
+      <c r="H56">
+        <v>0.04011221348267666</v>
+      </c>
+      <c r="I56">
+        <v>0.01725969329564735</v>
+      </c>
+      <c r="J56">
+        <v>0.04509689359039919</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B57">
-        <v>0.0968477789427826</v>
+        <v>-0.07238594829895842</v>
       </c>
       <c r="C57">
-        <v>0.02353187874855812</v>
+        <v>0.04015769717299667</v>
       </c>
       <c r="D57">
-        <v>-0.02011676469461749</v>
+        <v>-0.004298123231435849</v>
       </c>
       <c r="E57">
-        <v>-0.04416482851928032</v>
+        <v>0.01320754159188786</v>
       </c>
       <c r="F57">
-        <v>0.02559417886645165</v>
+        <v>0.06069401233382551</v>
       </c>
       <c r="G57">
-        <v>0.02162643504686486</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>0.0229391977661842</v>
+      </c>
+      <c r="H57">
+        <v>-0.02571608298548076</v>
+      </c>
+      <c r="I57">
+        <v>-0.0159716410151842</v>
+      </c>
+      <c r="J57">
+        <v>0.03373416277153887</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>0.1779969542920899</v>
+        <v>-0.1995034166703852</v>
       </c>
       <c r="C58">
-        <v>0.005891504890424101</v>
+        <v>0.1108861780716707</v>
       </c>
       <c r="D58">
-        <v>0.04382516618106861</v>
+        <v>0.03638173761844503</v>
       </c>
       <c r="E58">
-        <v>-0.1250414544510701</v>
+        <v>-0.01212400171194149</v>
       </c>
       <c r="F58">
-        <v>-0.06041298713229874</v>
+        <v>0.2435148520707462</v>
       </c>
       <c r="G58">
-        <v>0.01097330778985103</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.1390242523361862</v>
+      </c>
+      <c r="H58">
+        <v>-0.3889231623265212</v>
+      </c>
+      <c r="I58">
+        <v>0.07398233797858209</v>
+      </c>
+      <c r="J58">
+        <v>-0.7591716309942048</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>0.007374795152612536</v>
+        <v>-0.0399229731594564</v>
       </c>
       <c r="C59">
-        <v>-0.2020055874319779</v>
+        <v>-0.1535558769330457</v>
       </c>
       <c r="D59">
-        <v>-0.009133013312600106</v>
+        <v>0.1230325407992029</v>
       </c>
       <c r="E59">
-        <v>-0.05520014001689542</v>
+        <v>0.003197374630960096</v>
       </c>
       <c r="F59">
-        <v>0.009252704451846897</v>
+        <v>0.07113104020716986</v>
       </c>
       <c r="G59">
-        <v>0.009543138844802885</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.003538066329519273</v>
+      </c>
+      <c r="H59">
+        <v>0.02183769865244193</v>
+      </c>
+      <c r="I59">
+        <v>0.06254528343119102</v>
+      </c>
+      <c r="J59">
+        <v>0.003632914225380078</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>0.1866670985864902</v>
+        <v>-0.1847506722166148</v>
       </c>
       <c r="C60">
-        <v>-0.1064416369714857</v>
+        <v>-0.0117143701549737</v>
       </c>
       <c r="D60">
-        <v>-0.002771001477262767</v>
+        <v>0.06892524149807859</v>
       </c>
       <c r="E60">
-        <v>-0.1868256396779063</v>
+        <v>0.01126990871223196</v>
       </c>
       <c r="F60">
-        <v>0.05221058781252648</v>
+        <v>0.2027616889845141</v>
       </c>
       <c r="G60">
-        <v>0.02301193237188629</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.0982628259534255</v>
+      </c>
+      <c r="H60">
+        <v>0.2616952505022201</v>
+      </c>
+      <c r="I60">
+        <v>-0.09712615379248611</v>
+      </c>
+      <c r="J60">
+        <v>-0.0114338292918058</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>0.04889131679446562</v>
+        <v>-0.03820005858085234</v>
       </c>
       <c r="C61">
-        <v>0.0006187701223070767</v>
+        <v>0.02046713989582892</v>
       </c>
       <c r="D61">
-        <v>0.0069157104298959</v>
+        <v>-0.01238965249372223</v>
       </c>
       <c r="E61">
-        <v>-0.04032038563782869</v>
+        <v>0.002619984089510459</v>
       </c>
       <c r="F61">
-        <v>0.009432296743109029</v>
+        <v>0.04007195429282537</v>
       </c>
       <c r="G61">
-        <v>0.003872634748739265</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.009202524736581223</v>
+      </c>
+      <c r="H61">
+        <v>0.001534736401792567</v>
+      </c>
+      <c r="I61">
+        <v>-0.04124054864029249</v>
+      </c>
+      <c r="J61">
+        <v>0.01160016113917483</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2684,243 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>0.04844765379069589</v>
+        <v>-0.03213038214263671</v>
       </c>
       <c r="C63">
-        <v>-0.002579412354057974</v>
+        <v>0.01779419421274902</v>
       </c>
       <c r="D63">
-        <v>-0.01435654983765658</v>
+        <v>-0.008345090709539911</v>
       </c>
       <c r="E63">
-        <v>-0.03207229567738224</v>
+        <v>0.01389357714148231</v>
       </c>
       <c r="F63">
-        <v>0.003995642315483496</v>
+        <v>0.02828636054005024</v>
       </c>
       <c r="G63">
-        <v>0.01538903783007878</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.01809776529812859</v>
+      </c>
+      <c r="H63">
+        <v>-0.03913336840571958</v>
+      </c>
+      <c r="I63">
+        <v>0.01733927906677484</v>
+      </c>
+      <c r="J63">
+        <v>0.04193918533339532</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>0.08186612716752643</v>
+        <v>-0.0555719807419805</v>
       </c>
       <c r="C64">
-        <v>0.04233022510212659</v>
+        <v>0.0344744411037981</v>
       </c>
       <c r="D64">
-        <v>-0.05766137523182179</v>
+        <v>-0.0386440468703494</v>
       </c>
       <c r="E64">
-        <v>-0.06464195184669418</v>
+        <v>0.03785345043906743</v>
       </c>
       <c r="F64">
-        <v>0.05737139060916504</v>
+        <v>0.05621165497445931</v>
       </c>
       <c r="G64">
-        <v>-0.02711830156158798</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.05481480347107975</v>
+      </c>
+      <c r="H64">
+        <v>0.007145064956719626</v>
+      </c>
+      <c r="I64">
+        <v>-0.002010417893943658</v>
+      </c>
+      <c r="J64">
+        <v>0.09558473103157995</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>-0.01875476258991278</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>0.003105620037949721</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>-0.009612052577339528</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>0.003334786878517959</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>-0.002229285940784406</v>
       </c>
       <c r="G65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.02161653886957161</v>
+      </c>
+      <c r="H65">
+        <v>-0.0004280590646536945</v>
+      </c>
+      <c r="I65">
+        <v>-0.0101302337374907</v>
+      </c>
+      <c r="J65">
+        <v>0.00175715172654768</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>0.09638136287554809</v>
+        <v>-0.06909922722533521</v>
       </c>
       <c r="C66">
-        <v>0.02363868761571098</v>
+        <v>0.05449003442844488</v>
       </c>
       <c r="D66">
-        <v>-0.03380730534787405</v>
+        <v>-0.0173705404123995</v>
       </c>
       <c r="E66">
-        <v>-0.07976974099907534</v>
+        <v>0.04119093047769443</v>
       </c>
       <c r="F66">
-        <v>0.04331807637897529</v>
+        <v>0.07004886945628885</v>
       </c>
       <c r="G66">
-        <v>0.02059833129044309</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.01550002637130173</v>
+      </c>
+      <c r="H66">
+        <v>0.003633589637029599</v>
+      </c>
+      <c r="I66">
+        <v>-0.06154104910063345</v>
+      </c>
+      <c r="J66">
+        <v>0.05691634413509508</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>0.06394821732802457</v>
+        <v>-0.04601420910249533</v>
       </c>
       <c r="C67">
-        <v>-0.01651664721276624</v>
+        <v>-0.002325453401230067</v>
       </c>
       <c r="D67">
-        <v>-0.007255709575283119</v>
+        <v>0.004203567393525315</v>
       </c>
       <c r="E67">
-        <v>-0.03136147602031104</v>
+        <v>0.006904819075536568</v>
       </c>
       <c r="F67">
-        <v>0.005856478672591796</v>
+        <v>0.03983602781337304</v>
       </c>
       <c r="G67">
-        <v>-0.03468703270182068</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.03275265718338823</v>
+      </c>
+      <c r="H67">
+        <v>0.0102754742962591</v>
+      </c>
+      <c r="I67">
+        <v>-0.0393720812047374</v>
+      </c>
+      <c r="J67">
+        <v>0.004633733110294023</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>0.004897408870037168</v>
+        <v>-0.04622630266697846</v>
       </c>
       <c r="C68">
-        <v>-0.2483917636979804</v>
+        <v>-0.1846089924721569</v>
       </c>
       <c r="D68">
-        <v>0.007851344176379492</v>
+        <v>0.1388945336626303</v>
       </c>
       <c r="E68">
-        <v>-0.04026147122278034</v>
+        <v>-0.007090055974440517</v>
       </c>
       <c r="F68">
-        <v>0.004356611420001176</v>
+        <v>0.05535672392449657</v>
       </c>
       <c r="G68">
-        <v>0.0196954002298394</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.004765591835309817</v>
+      </c>
+      <c r="H68">
+        <v>0.01289619144285331</v>
+      </c>
+      <c r="I68">
+        <v>0.1714707774880181</v>
+      </c>
+      <c r="J68">
+        <v>-0.01833656352824698</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>0.07094920237803692</v>
+        <v>-0.07187150073342785</v>
       </c>
       <c r="C69">
-        <v>0.0130725411542109</v>
+        <v>0.02168619325576971</v>
       </c>
       <c r="D69">
-        <v>-0.0232272188337025</v>
+        <v>-0.005584454655418672</v>
       </c>
       <c r="E69">
-        <v>0.01112992253216604</v>
+        <v>0.02899680229473525</v>
       </c>
       <c r="F69">
-        <v>0.002097992281433232</v>
+        <v>0.001547641927580648</v>
       </c>
       <c r="G69">
-        <v>0.02580573441269817</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.02984287386058008</v>
+      </c>
+      <c r="H69">
+        <v>-0.02586815237700798</v>
+      </c>
+      <c r="I69">
+        <v>-0.01557819213779572</v>
+      </c>
+      <c r="J69">
+        <v>0.02542861411135351</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2940,275 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>0.006912829270730629</v>
+        <v>-0.05198312551135514</v>
       </c>
       <c r="C71">
-        <v>-0.2731079281805168</v>
+        <v>-0.1976404400418672</v>
       </c>
       <c r="D71">
-        <v>0.010818226131596</v>
+        <v>0.1573643700140497</v>
       </c>
       <c r="E71">
-        <v>-0.08062995551905557</v>
+        <v>-0.03051946165035016</v>
       </c>
       <c r="F71">
-        <v>0.0183033418260505</v>
+        <v>0.08120981100040797</v>
       </c>
       <c r="G71">
-        <v>0.04040676788188483</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.01394359245502114</v>
+      </c>
+      <c r="H71">
+        <v>0.03561119497989206</v>
+      </c>
+      <c r="I71">
+        <v>0.1309504294250188</v>
+      </c>
+      <c r="J71">
+        <v>0.01463067150818509</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>0.115269252252255</v>
+        <v>-0.1196462217420434</v>
       </c>
       <c r="C72">
-        <v>-0.009829363755867689</v>
+        <v>0.02547993260883112</v>
       </c>
       <c r="D72">
-        <v>-0.03649201120673386</v>
+        <v>-0.006273679386519134</v>
       </c>
       <c r="E72">
-        <v>-0.1038689930824703</v>
+        <v>0.05629127427902404</v>
       </c>
       <c r="F72">
-        <v>-0.01148460008126462</v>
+        <v>0.08886473114942196</v>
       </c>
       <c r="G72">
-        <v>-0.02558434783510532</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.04609848525076595</v>
+      </c>
+      <c r="H72">
+        <v>-0.004223410052138808</v>
+      </c>
+      <c r="I72">
+        <v>-0.03613990872442184</v>
+      </c>
+      <c r="J72">
+        <v>-0.10417164558146</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>0.2750396688563829</v>
+        <v>-0.2661427810761237</v>
       </c>
       <c r="C73">
-        <v>-0.1774912063819288</v>
+        <v>-0.02543140902560489</v>
       </c>
       <c r="D73">
-        <v>0.06657846792804886</v>
+        <v>0.1314997905411385</v>
       </c>
       <c r="E73">
-        <v>-0.340473487235557</v>
+        <v>-0.03408979211103702</v>
       </c>
       <c r="F73">
-        <v>0.05540462062027159</v>
+        <v>0.3123913813831778</v>
       </c>
       <c r="G73">
-        <v>0.006656044701605199</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.2047910316259134</v>
+      </c>
+      <c r="H73">
+        <v>0.4510933176496493</v>
+      </c>
+      <c r="I73">
+        <v>-0.3050151056457965</v>
+      </c>
+      <c r="J73">
+        <v>-0.0581052509348725</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>0.1581590069053665</v>
+        <v>-0.1525995195177093</v>
       </c>
       <c r="C74">
-        <v>-0.004960578622157635</v>
+        <v>0.02726777439128322</v>
       </c>
       <c r="D74">
-        <v>-0.04164007072338829</v>
+        <v>0.0009139510749188398</v>
       </c>
       <c r="E74">
-        <v>0.01791092911730858</v>
+        <v>0.04782697611854482</v>
       </c>
       <c r="F74">
-        <v>-0.05711447173535472</v>
+        <v>-0.05241088836281999</v>
       </c>
       <c r="G74">
-        <v>0.05248267617591404</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.01808160244458632</v>
+      </c>
+      <c r="H74">
+        <v>0.02862983393150312</v>
+      </c>
+      <c r="I74">
+        <v>-0.007060570260298764</v>
+      </c>
+      <c r="J74">
+        <v>0.08124932813295691</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>0.2343010609687047</v>
+        <v>-0.2454397383012475</v>
       </c>
       <c r="C75">
-        <v>-0.01584701326061048</v>
+        <v>0.03139543571250019</v>
       </c>
       <c r="D75">
-        <v>-0.07053626883506962</v>
+        <v>0.01509966520867496</v>
       </c>
       <c r="E75">
-        <v>0.1240466313977787</v>
+        <v>0.1071444428111139</v>
       </c>
       <c r="F75">
-        <v>-0.04083669193500349</v>
+        <v>-0.1409144889355848</v>
       </c>
       <c r="G75">
-        <v>0.04570289885860477</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.00481725368176371</v>
+      </c>
+      <c r="H75">
+        <v>0.02321422637992214</v>
+      </c>
+      <c r="I75">
+        <v>0.0824365905662045</v>
+      </c>
+      <c r="J75">
+        <v>0.04687405921386827</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>0.2468825354953645</v>
+        <v>-0.2688504414684298</v>
       </c>
       <c r="C76">
-        <v>-0.01531888331334961</v>
+        <v>0.01352921901929122</v>
       </c>
       <c r="D76">
-        <v>-0.1120424280233517</v>
+        <v>-0.01776661610846782</v>
       </c>
       <c r="E76">
-        <v>0.1183583970224488</v>
+        <v>0.1323404663186339</v>
       </c>
       <c r="F76">
-        <v>-0.07165611319896308</v>
+        <v>-0.1748729045451832</v>
       </c>
       <c r="G76">
-        <v>0.03941403370835599</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.04780259535520983</v>
+      </c>
+      <c r="H76">
+        <v>0.04183990774786168</v>
+      </c>
+      <c r="I76">
+        <v>0.003336570083887368</v>
+      </c>
+      <c r="J76">
+        <v>0.06089923108379655</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>0.1330157790597662</v>
+        <v>-0.1289704562269212</v>
       </c>
       <c r="C77">
-        <v>0.01907398353370762</v>
+        <v>0.06226645929319985</v>
       </c>
       <c r="D77">
-        <v>0.05252483502584061</v>
+        <v>-0.02711243889155995</v>
       </c>
       <c r="E77">
-        <v>-0.1461904882561718</v>
+        <v>-0.04112231730110976</v>
       </c>
       <c r="F77">
-        <v>0.004098045810302289</v>
+        <v>0.1621789024303335</v>
       </c>
       <c r="G77">
-        <v>-0.06666650621196844</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.0121577695893236</v>
+      </c>
+      <c r="H77">
+        <v>-0.2005758584298417</v>
+      </c>
+      <c r="I77">
+        <v>0.1543585069423559</v>
+      </c>
+      <c r="J77">
+        <v>0.1401131536384681</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>0.08613456910920647</v>
+        <v>-0.07968568888610504</v>
       </c>
       <c r="C78">
-        <v>0.03968382058575026</v>
+        <v>0.06103210453710749</v>
       </c>
       <c r="D78">
-        <v>0.02089461277656118</v>
+        <v>-0.04319654461655658</v>
       </c>
       <c r="E78">
-        <v>-0.0521847085747704</v>
+        <v>0.0004960685716577318</v>
       </c>
       <c r="F78">
-        <v>0.01178112020459931</v>
+        <v>0.0749644793267164</v>
       </c>
       <c r="G78">
-        <v>0.0156892606529975</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.01012825024996125</v>
+      </c>
+      <c r="H78">
+        <v>-0.02656791348287876</v>
+      </c>
+      <c r="I78">
+        <v>0.01418299805285379</v>
+      </c>
+      <c r="J78">
+        <v>0.04798417432687199</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +3228,83 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>0.07323249954203628</v>
+        <v>-0.1510285036511404</v>
       </c>
       <c r="C80">
-        <v>0.01518714509488833</v>
+        <v>-0.5674222988213578</v>
       </c>
       <c r="D80">
-        <v>0.01491867198887326</v>
+        <v>-0.7894867892407116</v>
       </c>
       <c r="E80">
-        <v>0.0280006167395248</v>
+        <v>-0.06797890418240524</v>
       </c>
       <c r="F80">
-        <v>-0.1549838243298307</v>
+        <v>0.04944729969290552</v>
       </c>
       <c r="G80">
-        <v>-0.9286388244859018</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.04293438951196001</v>
+      </c>
+      <c r="H80">
+        <v>0.05696933060919478</v>
+      </c>
+      <c r="I80">
+        <v>-0.002166655345020307</v>
+      </c>
+      <c r="J80">
+        <v>-0.1027770855456792</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>0.1627245642017484</v>
+        <v>-0.1802767922260376</v>
       </c>
       <c r="C81">
-        <v>-0.01178813613783374</v>
+        <v>0.01044699950030561</v>
       </c>
       <c r="D81">
-        <v>-0.05951194688816182</v>
+        <v>0.002964053701471205</v>
       </c>
       <c r="E81">
-        <v>0.1520989887550689</v>
+        <v>0.08700812626329017</v>
       </c>
       <c r="F81">
-        <v>-0.09746717313717657</v>
+        <v>-0.1588623522146032</v>
       </c>
       <c r="G81">
-        <v>0.04069430254218586</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.02772661901608518</v>
+      </c>
+      <c r="H81">
+        <v>0.01016698265285925</v>
+      </c>
+      <c r="I81">
+        <v>0.04733516774314572</v>
+      </c>
+      <c r="J81">
+        <v>0.0142665438607034</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +3324,51 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>0.09370541087577981</v>
+        <v>-0.06815577278232746</v>
       </c>
       <c r="C83">
-        <v>0.04078315960024762</v>
+        <v>0.04839560774735794</v>
       </c>
       <c r="D83">
-        <v>0.08209680534594149</v>
+        <v>-0.01219307516613375</v>
       </c>
       <c r="E83">
-        <v>-0.01037568079959192</v>
+        <v>-0.04092537768836983</v>
       </c>
       <c r="F83">
-        <v>0.06258400920969848</v>
+        <v>0.04773728588277959</v>
       </c>
       <c r="G83">
-        <v>0.01436396839834814</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.06028980289927578</v>
+      </c>
+      <c r="H83">
+        <v>-0.01547304122457835</v>
+      </c>
+      <c r="I83">
+        <v>0.002376652794577338</v>
+      </c>
+      <c r="J83">
+        <v>0.07990233731033733</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +3388,371 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>0.2372704731344285</v>
+        <v>-0.253076936949625</v>
       </c>
       <c r="C85">
-        <v>0.0504703754234968</v>
+        <v>0.0519539644906496</v>
       </c>
       <c r="D85">
-        <v>-0.06951666840278002</v>
+        <v>-0.02269858471980716</v>
       </c>
       <c r="E85">
-        <v>0.14767052682872</v>
+        <v>0.08949404642798293</v>
       </c>
       <c r="F85">
-        <v>-0.06633420587647929</v>
+        <v>-0.1799326648499774</v>
       </c>
       <c r="G85">
-        <v>0.03222793052790884</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.008077835321157053</v>
+      </c>
+      <c r="H85">
+        <v>-0.01467832691266019</v>
+      </c>
+      <c r="I85">
+        <v>0.03594998095408727</v>
+      </c>
+      <c r="J85">
+        <v>0.1003488635017872</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>0.04704774765172295</v>
+        <v>-0.02579129073590717</v>
       </c>
       <c r="C86">
-        <v>0.04622608171412179</v>
+        <v>0.05285458463317005</v>
       </c>
       <c r="D86">
-        <v>-0.009673179864536889</v>
+        <v>-0.03474117864013058</v>
       </c>
       <c r="E86">
-        <v>-0.06527614100687582</v>
+        <v>0.007574484352450631</v>
       </c>
       <c r="F86">
-        <v>0.001564007349289402</v>
+        <v>0.07079437943015338</v>
       </c>
       <c r="G86">
-        <v>0.02967531343548794</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.006862725039311221</v>
+      </c>
+      <c r="H86">
+        <v>-0.06279935035800494</v>
+      </c>
+      <c r="I86">
+        <v>0.01908527057926496</v>
+      </c>
+      <c r="J86">
+        <v>0.04901967289375646</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>0.02001234402750958</v>
+        <v>-0.033926602678368</v>
       </c>
       <c r="C87">
-        <v>-0.05151918068226235</v>
+        <v>-0.01100475927513513</v>
       </c>
       <c r="D87">
-        <v>-0.003339178398579385</v>
+        <v>0.01353463088209839</v>
       </c>
       <c r="E87">
-        <v>-0.09462899242937697</v>
+        <v>0.001616793904712685</v>
       </c>
       <c r="F87">
-        <v>-0.01597674881219723</v>
+        <v>0.1024490044416336</v>
       </c>
       <c r="G87">
-        <v>0.03409828988377618</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.02066332173646656</v>
+      </c>
+      <c r="H87">
+        <v>-0.01780929327544923</v>
+      </c>
+      <c r="I87">
+        <v>-0.01840711194332445</v>
+      </c>
+      <c r="J87">
+        <v>0.01152657642291819</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>0.04026451178353852</v>
+        <v>-0.02814286560688344</v>
       </c>
       <c r="C88">
-        <v>0.03234510014247794</v>
+        <v>0.01292150629043163</v>
       </c>
       <c r="D88">
-        <v>-0.008810987924163618</v>
+        <v>-0.02262108402892907</v>
       </c>
       <c r="E88">
-        <v>0.01131774919421243</v>
+        <v>0.01627564361464997</v>
       </c>
       <c r="F88">
-        <v>-0.01133513819226704</v>
+        <v>-0.009934923900723858</v>
       </c>
       <c r="G88">
-        <v>0.007685747800871214</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.04004236772311155</v>
+      </c>
+      <c r="H88">
+        <v>-0.03719525983154014</v>
+      </c>
+      <c r="I88">
+        <v>-0.03332712628371232</v>
+      </c>
+      <c r="J88">
+        <v>0.02952854646205583</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>-0.01257000686644231</v>
+        <v>-0.06687034061390901</v>
       </c>
       <c r="C89">
-        <v>-0.4165786323021882</v>
+        <v>-0.3046410632126514</v>
       </c>
       <c r="D89">
-        <v>0.08594601538693615</v>
+        <v>0.2497713410831086</v>
       </c>
       <c r="E89">
-        <v>0.01364691322477992</v>
+        <v>-0.04915872462526114</v>
       </c>
       <c r="F89">
-        <v>0.00834887597620027</v>
+        <v>0.03678533464160171</v>
       </c>
       <c r="G89">
-        <v>0.02758301894902017</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.04752615065465884</v>
+      </c>
+      <c r="H89">
+        <v>-0.03646169850252649</v>
+      </c>
+      <c r="I89">
+        <v>0.2811578197341997</v>
+      </c>
+      <c r="J89">
+        <v>0.01011581355632457</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>-0.008429588426564123</v>
+        <v>-0.0472705354840596</v>
       </c>
       <c r="C90">
-        <v>-0.3102144345545478</v>
+        <v>-0.2687467808117784</v>
       </c>
       <c r="D90">
-        <v>0.02808613048436685</v>
+        <v>0.1992450356474967</v>
       </c>
       <c r="E90">
-        <v>-0.03825311077098686</v>
+        <v>-0.03474977712221241</v>
       </c>
       <c r="F90">
-        <v>0.01412497037311902</v>
+        <v>0.03436041179691837</v>
       </c>
       <c r="G90">
-        <v>0.03992614694333063</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.02508325700137404</v>
+      </c>
+      <c r="H90">
+        <v>-0.0008745127934602548</v>
+      </c>
+      <c r="I90">
+        <v>0.2315574283271348</v>
+      </c>
+      <c r="J90">
+        <v>0.02740234430782692</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>0.2930783864688963</v>
+        <v>-0.3065941049210741</v>
       </c>
       <c r="C91">
-        <v>0.01941735111835809</v>
+        <v>0.04223047559942344</v>
       </c>
       <c r="D91">
-        <v>-0.08465172439432239</v>
+        <v>-0.008237411094638891</v>
       </c>
       <c r="E91">
-        <v>0.2957931041446643</v>
+        <v>0.1007123133777913</v>
       </c>
       <c r="F91">
-        <v>-0.1402666142802277</v>
+        <v>-0.298032248431919</v>
       </c>
       <c r="G91">
-        <v>-0.03699462349063865</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.03552937051095182</v>
+      </c>
+      <c r="H91">
+        <v>0.008395356011164192</v>
+      </c>
+      <c r="I91">
+        <v>0.1036674297274375</v>
+      </c>
+      <c r="J91">
+        <v>0.09514367315044658</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>-0.001858177295234019</v>
+        <v>-0.1031585523660265</v>
       </c>
       <c r="C92">
-        <v>-0.4300224700840945</v>
+        <v>-0.3737228932914143</v>
       </c>
       <c r="D92">
-        <v>0.1921051886505149</v>
+        <v>0.247941003658236</v>
       </c>
       <c r="E92">
-        <v>0.1542663316699856</v>
+        <v>-0.07006006811084173</v>
       </c>
       <c r="F92">
-        <v>-0.07619342277664563</v>
+        <v>-0.1174526652524665</v>
       </c>
       <c r="G92">
-        <v>-0.1474249660716186</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.1256361683834659</v>
+      </c>
+      <c r="H92">
+        <v>-0.4381467814705047</v>
+      </c>
+      <c r="I92">
+        <v>-0.7210617413321108</v>
+      </c>
+      <c r="J92">
+        <v>0.1070824818475639</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>-0.01962940866660089</v>
+        <v>-0.0522525915361852</v>
       </c>
       <c r="C93">
-        <v>-0.372625166106576</v>
+        <v>-0.3182745626331879</v>
       </c>
       <c r="D93">
-        <v>0.06588660464218168</v>
+        <v>0.2532138877189245</v>
       </c>
       <c r="E93">
-        <v>0.03390318147589746</v>
+        <v>-0.06584175573618777</v>
       </c>
       <c r="F93">
-        <v>-0.01213142177461096</v>
+        <v>0.002889830775712356</v>
       </c>
       <c r="G93">
-        <v>-0.03523045415161289</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.03463317965945777</v>
+      </c>
+      <c r="H93">
+        <v>0.02905604383506463</v>
+      </c>
+      <c r="I93">
+        <v>0.1883460164603297</v>
+      </c>
+      <c r="J93">
+        <v>-0.008313094611149959</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>0.2750293328080652</v>
+        <v>-0.3049290019000071</v>
       </c>
       <c r="C94">
-        <v>-0.07161387624475829</v>
+        <v>0.007942644104994161</v>
       </c>
       <c r="D94">
-        <v>-0.03774885109542434</v>
+        <v>0.04658448008497933</v>
       </c>
       <c r="E94">
-        <v>0.350067792469702</v>
+        <v>0.1362263376568768</v>
       </c>
       <c r="F94">
-        <v>-0.3909325369967118</v>
+        <v>-0.3355179097553087</v>
       </c>
       <c r="G94">
-        <v>0.1568899511455059</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.183891077588275</v>
+      </c>
+      <c r="H94">
+        <v>-0.1558416833933185</v>
+      </c>
+      <c r="I94">
+        <v>0.05003933955481226</v>
+      </c>
+      <c r="J94">
+        <v>-0.1704073209151949</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>0.19602634504322</v>
+        <v>-0.1287907861768995</v>
       </c>
       <c r="C95">
-        <v>-0.03031899856579227</v>
+        <v>0.09777972172303588</v>
       </c>
       <c r="D95">
-        <v>-0.007495800489469701</v>
+        <v>0.05285389658401984</v>
       </c>
       <c r="E95">
-        <v>0.3933180118551822</v>
+        <v>0.02819285060164241</v>
       </c>
       <c r="F95">
-        <v>0.8386804718895144</v>
+        <v>-0.0582302210906491</v>
       </c>
       <c r="G95">
-        <v>-0.109959930772842</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.8884741420796238</v>
+      </c>
+      <c r="H95">
+        <v>0.2192996362790008</v>
+      </c>
+      <c r="I95">
+        <v>-0.0259075128889263</v>
+      </c>
+      <c r="J95">
+        <v>-0.2769005321375235</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3772,19 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3804,51 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>0.219021178776568</v>
+        <v>-0.2083378952959745</v>
       </c>
       <c r="C98">
-        <v>-0.1242583517329709</v>
+        <v>-0.01967584942561513</v>
       </c>
       <c r="D98">
-        <v>0.05672134682394554</v>
+        <v>0.09477452576693614</v>
       </c>
       <c r="E98">
-        <v>-0.09273313629785469</v>
+        <v>-0.03183065229217337</v>
       </c>
       <c r="F98">
-        <v>0.05741401215886027</v>
+        <v>0.1570940752997816</v>
       </c>
       <c r="G98">
-        <v>0.06444711314554785</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.09939787496097131</v>
+      </c>
+      <c r="H98">
+        <v>0.3203430849693077</v>
+      </c>
+      <c r="I98">
+        <v>-0.1474107223817105</v>
+      </c>
+      <c r="J98">
+        <v>-0.08132477300558379</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3868,19 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,79 +3900,115 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>0.02216811467591328</v>
+        <v>-0.01479106458125915</v>
       </c>
       <c r="C101">
-        <v>0.01687018420698151</v>
+        <v>0.022917743155091</v>
       </c>
       <c r="D101">
-        <v>-0.02577056352986406</v>
+        <v>-0.02170855673797486</v>
       </c>
       <c r="E101">
-        <v>-0.02621990541643161</v>
+        <v>0.02915214819594435</v>
       </c>
       <c r="F101">
-        <v>0.01402023288795629</v>
+        <v>0.06774366624068474</v>
       </c>
       <c r="G101">
-        <v>0.01606298218651843</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.02335390989517006</v>
+      </c>
+      <c r="H101">
+        <v>-0.1097222839171981</v>
+      </c>
+      <c r="I101">
+        <v>-0.01800398305103924</v>
+      </c>
+      <c r="J101">
+        <v>-0.1160329138573499</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B102">
-        <v>0.1191297128379146</v>
+        <v>-0.1207570881005066</v>
       </c>
       <c r="C102">
-        <v>0.01299011311981454</v>
+        <v>0.01911639916826055</v>
       </c>
       <c r="D102">
-        <v>-0.04316320444348752</v>
+        <v>-0.01368149000895902</v>
       </c>
       <c r="E102">
-        <v>0.08137939033270704</v>
+        <v>0.05342262144129513</v>
       </c>
       <c r="F102">
-        <v>-0.001781441775051499</v>
+        <v>-0.0951431744507787</v>
       </c>
       <c r="G102">
-        <v>-0.005219977111229932</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.02132526503313876</v>
+      </c>
+      <c r="H102">
+        <v>0.0236791220566121</v>
+      </c>
+      <c r="I102">
+        <v>0.03877124844629288</v>
+      </c>
+      <c r="J102">
+        <v>0.04734110489738107</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B103">
-        <v>0.01764563055960586</v>
+        <v>-0.03078608082475872</v>
       </c>
       <c r="C103">
-        <v>-0.0001671557768486235</v>
+        <v>0.003199485993354573</v>
       </c>
       <c r="D103">
-        <v>-0.01258245988460384</v>
+        <v>-0.01032386093738754</v>
       </c>
       <c r="E103">
-        <v>0.02700404381115987</v>
+        <v>0.02048021334390491</v>
       </c>
       <c r="F103">
-        <v>-0.008869945850924954</v>
+        <v>-0.02351384554859431</v>
       </c>
       <c r="G103">
-        <v>0.0202162459005437</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>0.01689613826262099</v>
+      </c>
+      <c r="H103">
+        <v>-0.01315119856503474</v>
+      </c>
+      <c r="I103">
+        <v>0.02621468404682672</v>
+      </c>
+      <c r="J103">
+        <v>0.01333508242642611</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4026,15 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
